--- a/po_analysis_by_asin/B0CC3W59JB_po_data.xlsx
+++ b/po_analysis_by_asin/B0CC3W59JB_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,87 +452,87 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45313</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45390</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45404</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45411</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45418</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
@@ -540,49 +540,97 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45425</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45432</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45439</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45446</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>206</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45453</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B24" t="n">
         <v>10</v>
       </c>
     </row>
@@ -597,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,57 +667,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>348</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>10</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CC3W59JB_po_data.xlsx
+++ b/po_analysis_by_asin/B0CC3W59JB_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -661,7 +662,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -751,6 +752,481 @@
       </c>
       <c r="B12" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-74.11465617871889</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.67959643664039</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-70.58070690887989</v>
+      </c>
+      <c r="D3" t="n">
+        <v>54.87595740809189</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-66.6214458109021</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.5608444602473</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-55.82291843484577</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63.56590573070697</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-58.37911715636312</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66.37387467691147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-44.59190065701024</v>
+      </c>
+      <c r="D7" t="n">
+        <v>73.89749386006662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-43.75828306126981</v>
+      </c>
+      <c r="D8" t="n">
+        <v>78.23459939438651</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-38.94472521028322</v>
+      </c>
+      <c r="D9" t="n">
+        <v>82.80456205912095</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-41.56529147944974</v>
+      </c>
+      <c r="D10" t="n">
+        <v>80.22992009847869</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-40.16069539635289</v>
+      </c>
+      <c r="D11" t="n">
+        <v>81.94672175092307</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-33.14915674219721</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88.70209759137802</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-31.16921571386285</v>
+      </c>
+      <c r="D13" t="n">
+        <v>89.12422081284257</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>31</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-29.51984846890462</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87.58680835350704</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-31.2690173884736</v>
+      </c>
+      <c r="D15" t="n">
+        <v>94.52106229521092</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>38</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-23.34196240160038</v>
+      </c>
+      <c r="D16" t="n">
+        <v>99.66628297781405</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>39</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-22.2855178435832</v>
+      </c>
+      <c r="D17" t="n">
+        <v>98.66510609714426</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>41</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-19.95184111293637</v>
+      </c>
+      <c r="D18" t="n">
+        <v>100.8285168187325</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>42</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-20.31056104194815</v>
+      </c>
+      <c r="D19" t="n">
+        <v>97.79606343474815</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-16.46572504193887</v>
+      </c>
+      <c r="D20" t="n">
+        <v>102.4024246892847</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>44</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-12.11098058286826</v>
+      </c>
+      <c r="D21" t="n">
+        <v>104.3851169832152</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>46</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-13.02477139592461</v>
+      </c>
+      <c r="D22" t="n">
+        <v>105.0500899367</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-14.54958821329656</v>
+      </c>
+      <c r="D23" t="n">
+        <v>103.789938087363</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>52</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-10.17643517398805</v>
+      </c>
+      <c r="D24" t="n">
+        <v>110.9801004658706</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>54</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-7.166030731771311</v>
+      </c>
+      <c r="D25" t="n">
+        <v>109.619312577664</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>55</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.258766461379471</v>
+      </c>
+      <c r="D26" t="n">
+        <v>113.1731786341769</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>56</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.6087987581460336</v>
+      </c>
+      <c r="D27" t="n">
+        <v>117.2898459429282</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>58</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.4623303532139852</v>
+      </c>
+      <c r="D28" t="n">
+        <v>119.5142885064067</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5615523902777458</v>
+      </c>
+      <c r="D29" t="n">
+        <v>117.3777887507175</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>60</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.291341039404485</v>
+      </c>
+      <c r="D30" t="n">
+        <v>121.7768219789893</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>62</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.694356681050304</v>
+      </c>
+      <c r="D31" t="n">
+        <v>123.0514796926838</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>63</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.280538436849357</v>
+      </c>
+      <c r="D32" t="n">
+        <v>120.1385197000369</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CC3W59JB_po_data.xlsx
+++ b/po_analysis_by_asin/B0CC3W59JB_po_data.xlsx
@@ -765,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,16 +784,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -802,12 +792,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-74.11465617871889</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48.67959643664039</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -816,12 +800,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-70.58070690887989</v>
-      </c>
-      <c r="D3" t="n">
-        <v>54.87595740809189</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -830,12 +808,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>-66.6214458109021</v>
-      </c>
-      <c r="D4" t="n">
-        <v>59.5608444602473</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -844,12 +816,6 @@
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
-        <v>-55.82291843484577</v>
-      </c>
-      <c r="D5" t="n">
-        <v>63.56590573070697</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -858,12 +824,6 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>-58.37911715636312</v>
-      </c>
-      <c r="D6" t="n">
-        <v>66.37387467691147</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -872,12 +832,6 @@
       <c r="B7" t="n">
         <v>13</v>
       </c>
-      <c r="C7" t="n">
-        <v>-44.59190065701024</v>
-      </c>
-      <c r="D7" t="n">
-        <v>73.89749386006662</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -886,12 +840,6 @@
       <c r="B8" t="n">
         <v>18</v>
       </c>
-      <c r="C8" t="n">
-        <v>-43.75828306126981</v>
-      </c>
-      <c r="D8" t="n">
-        <v>78.23459939438651</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -900,12 +848,6 @@
       <c r="B9" t="n">
         <v>21</v>
       </c>
-      <c r="C9" t="n">
-        <v>-38.94472521028322</v>
-      </c>
-      <c r="D9" t="n">
-        <v>82.80456205912095</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -914,12 +856,6 @@
       <c r="B10" t="n">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
-        <v>-41.56529147944974</v>
-      </c>
-      <c r="D10" t="n">
-        <v>80.22992009847869</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -928,12 +864,6 @@
       <c r="B11" t="n">
         <v>23</v>
       </c>
-      <c r="C11" t="n">
-        <v>-40.16069539635289</v>
-      </c>
-      <c r="D11" t="n">
-        <v>81.94672175092307</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -942,12 +872,6 @@
       <c r="B12" t="n">
         <v>27</v>
       </c>
-      <c r="C12" t="n">
-        <v>-33.14915674219721</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88.70209759137802</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -956,12 +880,6 @@
       <c r="B13" t="n">
         <v>29</v>
       </c>
-      <c r="C13" t="n">
-        <v>-31.16921571386285</v>
-      </c>
-      <c r="D13" t="n">
-        <v>89.12422081284257</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -970,12 +888,6 @@
       <c r="B14" t="n">
         <v>31</v>
       </c>
-      <c r="C14" t="n">
-        <v>-29.51984846890462</v>
-      </c>
-      <c r="D14" t="n">
-        <v>87.58680835350704</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -984,12 +896,6 @@
       <c r="B15" t="n">
         <v>35</v>
       </c>
-      <c r="C15" t="n">
-        <v>-31.2690173884736</v>
-      </c>
-      <c r="D15" t="n">
-        <v>94.52106229521092</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -998,12 +904,6 @@
       <c r="B16" t="n">
         <v>38</v>
       </c>
-      <c r="C16" t="n">
-        <v>-23.34196240160038</v>
-      </c>
-      <c r="D16" t="n">
-        <v>99.66628297781405</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1012,12 +912,6 @@
       <c r="B17" t="n">
         <v>39</v>
       </c>
-      <c r="C17" t="n">
-        <v>-22.2855178435832</v>
-      </c>
-      <c r="D17" t="n">
-        <v>98.66510609714426</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1026,12 +920,6 @@
       <c r="B18" t="n">
         <v>41</v>
       </c>
-      <c r="C18" t="n">
-        <v>-19.95184111293637</v>
-      </c>
-      <c r="D18" t="n">
-        <v>100.8285168187325</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1040,12 +928,6 @@
       <c r="B19" t="n">
         <v>42</v>
       </c>
-      <c r="C19" t="n">
-        <v>-20.31056104194815</v>
-      </c>
-      <c r="D19" t="n">
-        <v>97.79606343474815</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1054,12 +936,6 @@
       <c r="B20" t="n">
         <v>43</v>
       </c>
-      <c r="C20" t="n">
-        <v>-16.46572504193887</v>
-      </c>
-      <c r="D20" t="n">
-        <v>102.4024246892847</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1068,12 +944,6 @@
       <c r="B21" t="n">
         <v>44</v>
       </c>
-      <c r="C21" t="n">
-        <v>-12.11098058286826</v>
-      </c>
-      <c r="D21" t="n">
-        <v>104.3851169832152</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1082,12 +952,6 @@
       <c r="B22" t="n">
         <v>46</v>
       </c>
-      <c r="C22" t="n">
-        <v>-13.02477139592461</v>
-      </c>
-      <c r="D22" t="n">
-        <v>105.0500899367</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1096,12 +960,6 @@
       <c r="B23" t="n">
         <v>47</v>
       </c>
-      <c r="C23" t="n">
-        <v>-14.54958821329656</v>
-      </c>
-      <c r="D23" t="n">
-        <v>103.789938087363</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1110,12 +968,6 @@
       <c r="B24" t="n">
         <v>52</v>
       </c>
-      <c r="C24" t="n">
-        <v>-10.17643517398805</v>
-      </c>
-      <c r="D24" t="n">
-        <v>110.9801004658706</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1124,12 +976,6 @@
       <c r="B25" t="n">
         <v>54</v>
       </c>
-      <c r="C25" t="n">
-        <v>-7.166030731771311</v>
-      </c>
-      <c r="D25" t="n">
-        <v>109.619312577664</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1138,12 +984,6 @@
       <c r="B26" t="n">
         <v>55</v>
       </c>
-      <c r="C26" t="n">
-        <v>-5.258766461379471</v>
-      </c>
-      <c r="D26" t="n">
-        <v>113.1731786341769</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1152,12 +992,6 @@
       <c r="B27" t="n">
         <v>56</v>
       </c>
-      <c r="C27" t="n">
-        <v>-0.6087987581460336</v>
-      </c>
-      <c r="D27" t="n">
-        <v>117.2898459429282</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1166,12 +1000,6 @@
       <c r="B28" t="n">
         <v>58</v>
       </c>
-      <c r="C28" t="n">
-        <v>-0.4623303532139852</v>
-      </c>
-      <c r="D28" t="n">
-        <v>119.5142885064067</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1180,12 +1008,6 @@
       <c r="B29" t="n">
         <v>59</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.5615523902777458</v>
-      </c>
-      <c r="D29" t="n">
-        <v>117.3777887507175</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1194,12 +1016,6 @@
       <c r="B30" t="n">
         <v>60</v>
       </c>
-      <c r="C30" t="n">
-        <v>1.291341039404485</v>
-      </c>
-      <c r="D30" t="n">
-        <v>121.7768219789893</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1208,12 +1024,6 @@
       <c r="B31" t="n">
         <v>62</v>
       </c>
-      <c r="C31" t="n">
-        <v>2.694356681050304</v>
-      </c>
-      <c r="D31" t="n">
-        <v>123.0514796926838</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1221,12 +1031,6 @@
       </c>
       <c r="B32" t="n">
         <v>63</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2.280538436849357</v>
-      </c>
-      <c r="D32" t="n">
-        <v>120.1385197000369</v>
       </c>
     </row>
   </sheetData>
